--- a/DataFeeds/SEAsiaCFR.xlsx
+++ b/DataFeeds/SEAsiaCFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28D2262-46B2-4BFE-B2D7-586D9FD15A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F3C01-44AD-42EB-8E36-226261F665DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{0C4E4F5C-9AE4-4677-82F6-A152ACA2E164}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C4E4F5C-9AE4-4677-82F6-A152ACA2E164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -69,7 +76,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,14 +84,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9B7542-BAF9-429E-8190-9C6B1EF44430}">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B176"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>39448</v>
       </c>
@@ -423,7 +444,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>39479</v>
       </c>
@@ -431,7 +452,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>39508</v>
       </c>
@@ -439,7 +460,7 @@
         <v>597.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>39539</v>
       </c>
@@ -447,7 +468,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>39569</v>
       </c>
@@ -455,7 +476,7 @@
         <v>841.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39600</v>
       </c>
@@ -463,7 +484,7 @@
         <v>948.75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39630</v>
       </c>
@@ -471,7 +492,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39661</v>
       </c>
@@ -479,7 +500,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39692</v>
       </c>
@@ -487,7 +508,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39722</v>
       </c>
@@ -495,7 +516,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39753</v>
       </c>
@@ -503,7 +524,7 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39783</v>
       </c>
@@ -511,7 +532,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39814</v>
       </c>
@@ -519,7 +540,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39845</v>
       </c>
@@ -527,7 +548,7 @@
         <v>912.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39873</v>
       </c>
@@ -535,7 +556,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39904</v>
       </c>
@@ -543,7 +564,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39934</v>
       </c>
@@ -551,7 +572,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39965</v>
       </c>
@@ -559,7 +580,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39995</v>
       </c>
@@ -567,7 +588,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>40026</v>
       </c>
@@ -575,7 +596,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>40057</v>
       </c>
@@ -583,7 +604,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>40087</v>
       </c>
@@ -591,7 +612,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>40118</v>
       </c>
@@ -599,7 +620,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>40148</v>
       </c>
@@ -607,7 +628,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40179</v>
       </c>
@@ -615,7 +636,7 @@
         <v>399.375</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40210</v>
       </c>
@@ -623,7 +644,7 @@
         <v>396.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>40238</v>
       </c>
@@ -631,7 +652,7 @@
         <v>399.375</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>40269</v>
       </c>
@@ -639,7 +660,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>40299</v>
       </c>
@@ -647,7 +668,7 @@
         <v>402.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40330</v>
       </c>
@@ -655,7 +676,7 @@
         <v>403.75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>40360</v>
       </c>
@@ -663,7 +684,7 @@
         <v>401.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40391</v>
       </c>
@@ -671,7 +692,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>40422</v>
       </c>
@@ -679,7 +700,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>40452</v>
       </c>
@@ -687,7 +708,7 @@
         <v>399.375</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>40483</v>
       </c>
@@ -695,7 +716,7 @@
         <v>406.25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40513</v>
       </c>
@@ -703,7 +724,7 @@
         <v>417.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40544</v>
       </c>
@@ -711,7 +732,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40575</v>
       </c>
@@ -719,7 +740,7 @@
         <v>441.25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40603</v>
       </c>
@@ -727,7 +748,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40634</v>
       </c>
@@ -735,7 +756,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40664</v>
       </c>
@@ -743,7 +764,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40695</v>
       </c>
@@ -751,7 +772,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40725</v>
       </c>
@@ -759,7 +780,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40756</v>
       </c>
@@ -767,7 +788,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40787</v>
       </c>
@@ -775,7 +796,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40817</v>
       </c>
@@ -783,7 +804,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40848</v>
       </c>
@@ -791,7 +812,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40878</v>
       </c>
@@ -799,7 +820,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40909</v>
       </c>
@@ -807,7 +828,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40940</v>
       </c>
@@ -815,7 +836,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40969</v>
       </c>
@@ -823,7 +844,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>41000</v>
       </c>
@@ -831,7 +852,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>41030</v>
       </c>
@@ -839,7 +860,7 @@
         <v>520.5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>41061</v>
       </c>
@@ -847,7 +868,7 @@
         <v>517.5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>41091</v>
       </c>
@@ -855,7 +876,7 @@
         <v>517.5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>41122</v>
       </c>
@@ -863,7 +884,7 @@
         <v>517.5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>41153</v>
       </c>
@@ -871,7 +892,7 @@
         <v>515.625</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>41183</v>
       </c>
@@ -879,7 +900,7 @@
         <v>492.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>41214</v>
       </c>
@@ -887,7 +908,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>41244</v>
       </c>
@@ -895,7 +916,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>41275</v>
       </c>
@@ -903,7 +924,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41306</v>
       </c>
@@ -911,7 +932,7 @@
         <v>436.25</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41334</v>
       </c>
@@ -919,7 +940,7 @@
         <v>442.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41365</v>
       </c>
@@ -927,7 +948,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41395</v>
       </c>
@@ -935,7 +956,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41426</v>
       </c>
@@ -943,7 +964,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41456</v>
       </c>
@@ -951,7 +972,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41487</v>
       </c>
@@ -959,7 +980,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41518</v>
       </c>
@@ -967,7 +988,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41548</v>
       </c>
@@ -975,7 +996,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41579</v>
       </c>
@@ -983,7 +1004,7 @@
         <v>328.75</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41609</v>
       </c>
@@ -991,7 +1012,7 @@
         <v>315.625</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>41640</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>316.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>41671</v>
       </c>
@@ -1007,7 +1028,7 @@
         <v>321.25</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>41699</v>
       </c>
@@ -1015,7 +1036,7 @@
         <v>328.75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>41730</v>
       </c>
@@ -1023,7 +1044,7 @@
         <v>323.75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>41760</v>
       </c>
@@ -1031,7 +1052,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>41791</v>
       </c>
@@ -1039,7 +1060,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>41821</v>
       </c>
@@ -1047,7 +1068,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>41852</v>
       </c>
@@ -1055,7 +1076,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>41883</v>
       </c>
@@ -1063,7 +1084,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>41913</v>
       </c>
@@ -1071,7 +1092,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>41944</v>
       </c>
@@ -1079,7 +1100,7 @@
         <v>328.125</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>41974</v>
       </c>
@@ -1087,7 +1108,7 @@
         <v>334.375</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42005</v>
       </c>
@@ -1095,7 +1116,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42036</v>
       </c>
@@ -1103,7 +1124,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42064</v>
       </c>
@@ -1111,7 +1132,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42095</v>
       </c>
@@ -1119,7 +1140,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42125</v>
       </c>
@@ -1127,7 +1148,7 @@
         <v>330.625</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42156</v>
       </c>
@@ -1135,7 +1156,7 @@
         <v>323.75</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42186</v>
       </c>
@@ -1143,7 +1164,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42217</v>
       </c>
@@ -1151,7 +1172,7 @@
         <v>316.875</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42248</v>
       </c>
@@ -1159,7 +1180,7 @@
         <v>310.625</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42278</v>
       </c>
@@ -1167,7 +1188,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42309</v>
       </c>
@@ -1175,7 +1196,7 @@
         <v>299.375</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42339</v>
       </c>
@@ -1183,7 +1204,7 @@
         <v>291.5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42370</v>
       </c>
@@ -1191,7 +1212,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42401</v>
       </c>
@@ -1199,7 +1220,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42430</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42461</v>
       </c>
@@ -1215,7 +1236,7 @@
         <v>259.375</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42491</v>
       </c>
@@ -1223,7 +1244,7 @@
         <v>244.375</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42522</v>
       </c>
@@ -1231,7 +1252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42552</v>
       </c>
@@ -1239,7 +1260,7 @@
         <v>236.25</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42583</v>
       </c>
@@ -1247,7 +1268,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42614</v>
       </c>
@@ -1255,7 +1276,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42644</v>
       </c>
@@ -1263,7 +1284,7 @@
         <v>236.25</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42675</v>
       </c>
@@ -1271,7 +1292,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42705</v>
       </c>
@@ -1279,7 +1300,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42736</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42767</v>
       </c>
@@ -1295,7 +1316,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42795</v>
       </c>
@@ -1303,7 +1324,7 @@
         <v>237.5</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42826</v>
       </c>
@@ -1311,7 +1332,7 @@
         <v>237.5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42856</v>
       </c>
@@ -1319,7 +1340,7 @@
         <v>239.375</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42887</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42917</v>
       </c>
@@ -1335,7 +1356,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42948</v>
       </c>
@@ -1343,7 +1364,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42979</v>
       </c>
@@ -1351,7 +1372,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>43009</v>
       </c>
@@ -1359,7 +1380,7 @@
         <v>248.125</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43040</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>250.5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43070</v>
       </c>
@@ -1375,7 +1396,7 @@
         <v>252.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>43101</v>
       </c>
@@ -1383,7 +1404,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>43132</v>
       </c>
@@ -1391,7 +1412,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43160</v>
       </c>
@@ -1399,7 +1420,7 @@
         <v>265.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43191</v>
       </c>
@@ -1407,7 +1428,7 @@
         <v>269.375</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43221</v>
       </c>
@@ -1415,7 +1436,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43252</v>
       </c>
@@ -1423,7 +1444,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43282</v>
       </c>
@@ -1431,7 +1452,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43313</v>
       </c>
@@ -1439,7 +1460,7 @@
         <v>280.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43344</v>
       </c>
@@ -1447,7 +1468,7 @@
         <v>284.375</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43374</v>
       </c>
@@ -1455,7 +1476,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43405</v>
       </c>
@@ -1463,7 +1484,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43435</v>
       </c>
@@ -1471,7 +1492,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43466</v>
       </c>
@@ -1479,7 +1500,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43497</v>
       </c>
@@ -1487,7 +1508,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43525</v>
       </c>
@@ -1495,7 +1516,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43556</v>
       </c>
@@ -1503,7 +1524,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43586</v>
       </c>
@@ -1511,7 +1532,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43617</v>
       </c>
@@ -1519,7 +1540,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43647</v>
       </c>
@@ -1527,7 +1548,7 @@
         <v>298.75</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43678</v>
       </c>
@@ -1535,7 +1556,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43709</v>
       </c>
@@ -1543,7 +1564,7 @@
         <v>288.75</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43739</v>
       </c>
@@ -1551,7 +1572,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43770</v>
       </c>
@@ -1559,7 +1580,7 @@
         <v>275.625</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43800</v>
       </c>
@@ -1567,7 +1588,7 @@
         <v>273.33333333333297</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43831</v>
       </c>
@@ -1575,7 +1596,7 @@
         <v>266.5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43862</v>
       </c>
@@ -1583,7 +1604,7 @@
         <v>256.25</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43891</v>
       </c>
@@ -1591,7 +1612,7 @@
         <v>250.625</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43922</v>
       </c>
@@ -1599,7 +1620,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43952</v>
       </c>
@@ -1607,7 +1628,7 @@
         <v>241.25</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43983</v>
       </c>
@@ -1615,7 +1636,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44013</v>
       </c>
@@ -1623,7 +1644,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44044</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44075</v>
       </c>
@@ -1639,7 +1660,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44105</v>
       </c>
@@ -1647,7 +1668,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44136</v>
       </c>
@@ -1655,7 +1676,7 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44166</v>
       </c>
@@ -1663,7 +1684,7 @@
         <v>239.75</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44197</v>
       </c>
@@ -1671,7 +1692,7 @@
         <v>242.125</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44228</v>
       </c>
@@ -1679,7 +1700,7 @@
         <v>246.875</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44256</v>
       </c>
@@ -1687,7 +1708,7 @@
         <v>255.625</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44287</v>
       </c>
@@ -1695,7 +1716,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44317</v>
       </c>
@@ -1703,7 +1724,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44348</v>
       </c>
@@ -1711,7 +1732,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44378</v>
       </c>
@@ -1719,7 +1740,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44409</v>
       </c>
@@ -1727,7 +1748,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44440</v>
       </c>
@@ -1735,7 +1756,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44470</v>
       </c>
@@ -1743,7 +1764,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44501</v>
       </c>
@@ -1751,7 +1772,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44531</v>
       </c>
@@ -1759,7 +1780,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44562</v>
       </c>
@@ -1767,7 +1788,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44593</v>
       </c>
@@ -1775,7 +1796,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44621</v>
       </c>
@@ -1783,7 +1804,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44652</v>
       </c>
@@ -1791,7 +1812,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44682</v>
       </c>
@@ -1799,7 +1820,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44713</v>
       </c>
@@ -1807,12 +1828,76 @@
         <v>935</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>44743</v>
       </c>
       <c r="B176">
         <v>922</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B177">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B178" s="3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B179" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B180" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B181" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B182" s="3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B183" s="3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B184" s="3">
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/SEAsiaCFR.xlsx
+++ b/DataFeeds/SEAsiaCFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F3C01-44AD-42EB-8E36-226261F665DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1275424-3F23-4F44-AB85-4A239103B30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C4E4F5C-9AE4-4677-82F6-A152ACA2E164}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="21600" windowHeight="11410" xr2:uid="{0C4E4F5C-9AE4-4677-82F6-A152ACA2E164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+      <selection activeCell="B180" sqref="B180:B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1857,7 +1857,7 @@
         <v>44835</v>
       </c>
       <c r="B179" s="3">
-        <v>700</v>
+        <v>898</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1865,7 +1865,7 @@
         <v>44866</v>
       </c>
       <c r="B180" s="3">
-        <v>700</v>
+        <v>898</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1873,7 +1873,7 @@
         <v>44896</v>
       </c>
       <c r="B181" s="3">
-        <v>700</v>
+        <v>898</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/DataFeeds/SEAsiaCFR.xlsx
+++ b/DataFeeds/SEAsiaCFR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1275424-3F23-4F44-AB85-4A239103B30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396641A-898C-AE44-85D4-B02D63701E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="21600" windowHeight="11410" xr2:uid="{0C4E4F5C-9AE4-4677-82F6-A152ACA2E164}"/>
+    <workbookView xWindow="3500" yWindow="1100" windowWidth="21600" windowHeight="11420" xr2:uid="{0C4E4F5C-9AE4-4677-82F6-A152ACA2E164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,12 +57,12 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="4"/>
+      <color rgb="FF44546A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,8 +75,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -84,28 +96,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9B7542-BAF9-429E-8190-9C6B1EF44430}">
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180:B181"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:A193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>39448</v>
       </c>
@@ -444,7 +444,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>39479</v>
       </c>
@@ -452,7 +452,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>39508</v>
       </c>
@@ -460,7 +460,7 @@
         <v>597.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>39539</v>
       </c>
@@ -468,7 +468,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>39569</v>
       </c>
@@ -476,7 +476,7 @@
         <v>841.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>39600</v>
       </c>
@@ -484,7 +484,7 @@
         <v>948.75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>39630</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>39661</v>
       </c>
@@ -500,7 +500,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>39692</v>
       </c>
@@ -508,7 +508,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>39722</v>
       </c>
@@ -516,7 +516,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>39753</v>
       </c>
@@ -524,7 +524,7 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>39783</v>
       </c>
@@ -532,7 +532,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>39814</v>
       </c>
@@ -540,7 +540,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>39845</v>
       </c>
@@ -548,7 +548,7 @@
         <v>912.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>39873</v>
       </c>
@@ -556,7 +556,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>39904</v>
       </c>
@@ -564,7 +564,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>39934</v>
       </c>
@@ -572,7 +572,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>39965</v>
       </c>
@@ -580,7 +580,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>39995</v>
       </c>
@@ -588,7 +588,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>40026</v>
       </c>
@@ -596,7 +596,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>40057</v>
       </c>
@@ -604,7 +604,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>40087</v>
       </c>
@@ -612,7 +612,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40118</v>
       </c>
@@ -620,7 +620,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>40148</v>
       </c>
@@ -628,7 +628,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>40179</v>
       </c>
@@ -636,7 +636,7 @@
         <v>399.375</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40210</v>
       </c>
@@ -644,7 +644,7 @@
         <v>396.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40238</v>
       </c>
@@ -652,7 +652,7 @@
         <v>399.375</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>40269</v>
       </c>
@@ -660,7 +660,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40299</v>
       </c>
@@ -668,7 +668,7 @@
         <v>402.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>40330</v>
       </c>
@@ -676,7 +676,7 @@
         <v>403.75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40360</v>
       </c>
@@ -684,7 +684,7 @@
         <v>401.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40391</v>
       </c>
@@ -692,7 +692,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40422</v>
       </c>
@@ -700,7 +700,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40452</v>
       </c>
@@ -708,7 +708,7 @@
         <v>399.375</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>40483</v>
       </c>
@@ -716,7 +716,7 @@
         <v>406.25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>40513</v>
       </c>
@@ -724,7 +724,7 @@
         <v>417.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40544</v>
       </c>
@@ -732,7 +732,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40575</v>
       </c>
@@ -740,7 +740,7 @@
         <v>441.25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40603</v>
       </c>
@@ -748,7 +748,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40634</v>
       </c>
@@ -756,7 +756,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40664</v>
       </c>
@@ -764,7 +764,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40695</v>
       </c>
@@ -772,7 +772,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40725</v>
       </c>
@@ -780,7 +780,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40756</v>
       </c>
@@ -788,7 +788,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40787</v>
       </c>
@@ -796,7 +796,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40817</v>
       </c>
@@ -804,7 +804,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40848</v>
       </c>
@@ -812,7 +812,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40878</v>
       </c>
@@ -820,7 +820,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40909</v>
       </c>
@@ -828,7 +828,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40940</v>
       </c>
@@ -836,7 +836,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40969</v>
       </c>
@@ -844,7 +844,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>41000</v>
       </c>
@@ -852,7 +852,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>41030</v>
       </c>
@@ -860,7 +860,7 @@
         <v>520.5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>41061</v>
       </c>
@@ -868,7 +868,7 @@
         <v>517.5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>41091</v>
       </c>
@@ -876,7 +876,7 @@
         <v>517.5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>41122</v>
       </c>
@@ -884,7 +884,7 @@
         <v>517.5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41153</v>
       </c>
@@ -892,7 +892,7 @@
         <v>515.625</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>41183</v>
       </c>
@@ -900,7 +900,7 @@
         <v>492.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>41214</v>
       </c>
@@ -908,7 +908,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>41244</v>
       </c>
@@ -916,7 +916,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>41275</v>
       </c>
@@ -924,7 +924,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>41306</v>
       </c>
@@ -932,7 +932,7 @@
         <v>436.25</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>41334</v>
       </c>
@@ -940,7 +940,7 @@
         <v>442.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41365</v>
       </c>
@@ -948,7 +948,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>41395</v>
       </c>
@@ -956,7 +956,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>41426</v>
       </c>
@@ -964,7 +964,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>41456</v>
       </c>
@@ -972,7 +972,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>41487</v>
       </c>
@@ -980,7 +980,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>41518</v>
       </c>
@@ -988,7 +988,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>41548</v>
       </c>
@@ -996,7 +996,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>41579</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>328.75</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>41609</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>315.625</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>41640</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>316.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>41671</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>321.25</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>41699</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>328.75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>41730</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>323.75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>41760</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>41791</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>41821</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>41852</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>41883</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>41913</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>41944</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>328.125</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>41974</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>334.375</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42005</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42036</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42064</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42095</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42125</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>330.625</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42156</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>323.75</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42186</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42217</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>316.875</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42248</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>310.625</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>42278</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42309</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>299.375</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>42339</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>291.5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42370</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42401</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42430</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42461</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>259.375</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42491</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>244.375</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42522</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42552</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>236.25</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42583</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42614</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42644</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>236.25</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42675</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42705</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42736</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42767</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42795</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>237.5</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42826</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>237.5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42856</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>239.375</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42887</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42917</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42948</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42979</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43009</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>248.125</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43040</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>250.5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43070</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>252.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43101</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43132</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43160</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>265.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43191</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>269.375</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43221</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43252</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43282</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43313</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>280.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43344</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>284.375</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43374</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43405</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43435</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43466</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43497</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43525</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43556</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43586</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43617</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43647</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>298.75</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43678</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43709</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>288.75</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43739</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43770</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>275.625</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43800</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>273.33333333333297</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43831</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>266.5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43862</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>256.25</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43891</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>250.625</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43922</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43952</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>241.25</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43983</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44013</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44044</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44075</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44105</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44136</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44166</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>239.75</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44197</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>242.125</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44228</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>246.875</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44256</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>255.625</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44287</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44317</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44348</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44378</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44409</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44440</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44470</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44501</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44531</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44562</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44593</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44621</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44652</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44682</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44713</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>44743</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44774</v>
       </c>
@@ -1844,15 +1844,15 @@
         <v>875</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>44805</v>
       </c>
       <c r="B178" s="3">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44835</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>44866</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44896</v>
       </c>
@@ -1876,28 +1876,100 @@
         <v>898</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>44927</v>
       </c>
-      <c r="B182" s="3">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B182" s="4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44958</v>
       </c>
-      <c r="B183" s="3">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B183" s="4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>44986</v>
       </c>
-      <c r="B184" s="3">
-        <v>675</v>
+      <c r="B184" s="4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B185" s="4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B186" s="4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B187" s="4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B188" s="4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B189" s="4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B190" s="4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B191" s="4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B192" s="4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B193" s="4">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/SEAsiaCFR.xlsx
+++ b/DataFeeds/SEAsiaCFR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396641A-898C-AE44-85D4-B02D63701E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D8D995-A630-0D4E-A4A1-29C2F616313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="1100" windowWidth="21600" windowHeight="11420" xr2:uid="{0C4E4F5C-9AE4-4677-82F6-A152ACA2E164}"/>
   </bookViews>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9B7542-BAF9-429E-8190-9C6B1EF44430}">
   <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183:A193"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170:B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1849,7 +1849,7 @@
         <v>44805</v>
       </c>
       <c r="B178" s="3">
-        <v>789</v>
+        <v>833</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -1857,7 +1857,7 @@
         <v>44835</v>
       </c>
       <c r="B179" s="3">
-        <v>898</v>
+        <v>788</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -1865,7 +1865,7 @@
         <v>44866</v>
       </c>
       <c r="B180" s="3">
-        <v>898</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>44896</v>
       </c>
       <c r="B181" s="3">
-        <v>898</v>
+        <v>560</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
